--- a/data/trans_dic/P11_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuya vivienda tiene &lt;=2 habitaciones</t>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>27,32%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>20,95%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>21,79%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26,32%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20,41%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>21,29%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>20,35%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>20,23%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>21,06%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>26,81%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>27,13%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 23,62</t>
+          <t>16,38; 23,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,98; 23,91</t>
+          <t>17,24; 24,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,75; 24,45</t>
+          <t>17,42; 24,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,98; 30,85</t>
+          <t>16,26; 24,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,87; 24,32</t>
+          <t>23,9; 31,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,61; 23,2</t>
+          <t>24,42; 31,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,62; 24,74</t>
+          <t>17,96; 24,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 29,37</t>
+          <t>17,41; 23,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,08; 22,77</t>
+          <t>18,89; 24,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,22; 22,55</t>
+          <t>17,23; 24,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,79; 23,59</t>
+          <t>23,42; 29,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,39; 29,22</t>
+          <t>23,37; 29,14</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 22,82</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 22,61</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>19,25; 23,85</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>17,63; 23,03</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>24,56; 29,43</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>24,74; 29,46</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>20,8%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,36%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>18,19%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>19,02%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>20,22%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>19,38%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>23,23%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,9%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20,17%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>19,72%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>21,77%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>21,75%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,13; 21,65</t>
+          <t>12,25; 21,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 24,27</t>
+          <t>15,78; 23,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 26,56</t>
+          <t>16,68; 26,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 31,54</t>
+          <t>15,32; 24,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 25,92</t>
+          <t>18,89; 31,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 25,34</t>
+          <t>15,72; 25,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,81; 21,7</t>
+          <t>18,28; 26,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 24,33</t>
+          <t>17,45; 24,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 22,31</t>
+          <t>14,77; 22,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,57; 22,91</t>
+          <t>15,89; 23,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,87</t>
+          <t>13,65; 24,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,42; 26,45</t>
+          <t>18,0; 29,8</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16,15; 22,26</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>17,46; 23,16</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16,97; 23,15</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 22,74</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 26,44</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>18,01; 26,33</t>
         </is>
       </c>
     </row>
@@ -936,12 +1105,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -951,45 +1120,75 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>14,99%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>15,63%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>14,48%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14,47%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>14,64%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>14,22%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>12,96%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>12,95%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>16,03%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 31,05</t>
+          <t>6,8; 31,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 19,55</t>
+          <t>7,37; 18,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 18,09</t>
+          <t>6,93; 18,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6,24; 21,12</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9,9; 22,25</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,59; 22,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,8; 20,76</t>
+          <t>10,18; 22,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>10,68; 22,71</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9,94; 20,71</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 29,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>10,21; 22,49</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,63; 18,74</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>9,33; 17,53</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 23,45</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10,34; 18,05</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 17,34</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11,58; 21,92</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1081,57 +1310,87 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>26,77%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>20,55%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19,54%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>24,57%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>19,15%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25,51%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>19,68%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>19,51%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>19,44%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>25,67%</t>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>25,66%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>25,88%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 20,82</t>
+          <t>15,1; 20,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 21,42</t>
+          <t>16,79; 21,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,58</t>
+          <t>17,22; 22,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,89; 30,04</t>
+          <t>16,25; 21,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 22,95</t>
+          <t>23,69; 29,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,19; 22,36</t>
+          <t>23,43; 29,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,24; 21,56</t>
+          <t>18,17; 22,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,53; 27,35</t>
+          <t>18,01; 22,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 20,96</t>
+          <t>17,43; 21,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,99; 21,31</t>
+          <t>17,71; 22,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,88; 21,1</t>
+          <t>21,87; 27,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,55; 27,73</t>
+          <t>22,79; 28,26</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>17,5; 21,37</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 21,22</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 21,44</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 21,41</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>23,59; 27,73</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>23,8; 27,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,68%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>327740</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>334692</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>337203</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>322223</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>61827</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>63384</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>373937</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>369458</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>394100</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>370977</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>62382</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>61499</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>701677</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>704150</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>731303</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>693199</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>124209</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>124883</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>269181; 392846</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>280713; 392789</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>283472; 403482</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>263336; 393397</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>54084; 70678</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>54993; 71521</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>323978; 440182</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>317225; 425031</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>341686; 444610</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>308016; 437092</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>55493; 69898</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54947; 68519</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>617378; 786664</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>624864; 780119</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>661293; 819533</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>600729; 784428</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>113783; 136368</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>113890; 135623</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>217883</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>268187</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>294784</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>270464</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17907</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14728</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>303150</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>285430</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>248996</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>266021</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11840</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15428</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>521033</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>553617</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>543780</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>536485</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>29747</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>30156</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>167498; 291644</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>216630; 328666</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>230397; 366169</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>210791; 341991</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13514; 22527</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11354; 18557</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>253939; 362884</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>239496; 341924</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>203113; 305776</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>218385; 322310</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8883; 15788</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11957; 19793</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>445270; 613524</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>479342; 635835</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>467958; 638112</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>458629; 625443</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>24292; 36130</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>24967; 36504</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61441</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>52692</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>48514</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50830</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>62431</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>64036</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59605</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>81945</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>123872</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>116728</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>108119</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>132775</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28772; 135033</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31156; 76268</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29320; 77609</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25995; 87912</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41932; 91776</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43755; 92997</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40960; 85301</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>56372; 120746</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>85174; 195737</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>86088; 150262</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>81717; 144773</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>95900; 181528</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>445.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>555.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>516.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>516.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>607064</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>655571</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>680501</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>643517</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>79734</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>78112</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>739517</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>718923</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>702701</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>718942</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>74222</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>76927</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1346582</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1374495</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1383202</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1362460</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>153956</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>155039</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>518574; 713578</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>574891; 741845</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>590750; 778986</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>554486; 737389</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>70556; 89228</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>69674; 87382</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>655098; 823125</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>649238; 800692</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>626875; 780213</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>632984; 816338</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>66063; 82256</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>68722; 85225</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1231560; 1504295</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1263427; 1491299</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1263729; 1506626</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1242755; 1495578</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>141497; 166331</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>142576; 167300</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
